--- a/database/properties.xlsx
+++ b/database/properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>2025-08-18T06:57:09.573Z</t>
+  </si>
+  <si>
+    <t>1756657070051</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>123idp</t>
+  </si>
+  <si>
+    <t>["1 floor (200)","2 floor (201)","3 floor (202)","4 floor (203)","5 floor (204)"]</t>
+  </si>
+  <si>
+    <t>2025-08-31T16:17:50.052Z</t>
   </si>
 </sst>
 </file>
@@ -444,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -520,6 +535,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/database/properties.xlsx
+++ b/database/properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -34,13 +34,13 @@
     <t>CreatedAt</t>
   </si>
   <si>
-    <t>1755340190541</t>
-  </si>
-  <si>
-    <t>Ravibhawan Ghar</t>
-  </si>
-  <si>
-    <t>Ravi Bhawan-14</t>
+    <t>1756714830530</t>
+  </si>
+  <si>
+    <t>New Home</t>
+  </si>
+  <si>
+    <t>Nepal</t>
   </si>
   <si>
     <t>whole</t>
@@ -49,40 +49,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>2025-08-16T10:29:50.541Z</t>
-  </si>
-  <si>
-    <t>1755500229573</t>
-  </si>
-  <si>
-    <t>Priska House</t>
-  </si>
-  <si>
-    <t>Boudha</t>
-  </si>
-  <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t>["1st Floor (201)","1st Floor (202)"]</t>
-  </si>
-  <si>
-    <t>2025-08-18T06:57:09.573Z</t>
-  </si>
-  <si>
-    <t>1756657070051</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>123idp</t>
-  </si>
-  <si>
-    <t>["1 floor (200)","2 floor (201)","3 floor (202)","4 floor (203)","5 floor (204)"]</t>
-  </si>
-  <si>
-    <t>2025-08-31T16:17:50.052Z</t>
+    <t>2025-09-01T08:20:30.530Z</t>
   </si>
 </sst>
 </file>
@@ -459,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -515,46 +482,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
